--- a/data/supervision_pos_en.xlsx
+++ b/data/supervision_pos_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Grants\Datos CV\archivos (1)\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F390701A-49AC-47FA-AA22-DC7DF71667C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47154635-3C79-423C-939E-F7CB6C050D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>what</t>
   </si>
@@ -50,73 +50,82 @@
     <t>why</t>
   </si>
   <si>
-    <t>2015 - 2018</t>
-  </si>
-  <si>
-    <t>Professional Doctorate in Counselling Psychology</t>
-  </si>
-  <si>
-    <t>2013 - 2014</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
     <t>\href{https://www.unbosque.edu.co/}{Universidad El Bosque}, Colombia</t>
   </si>
   <si>
-    <t>\href{https://www.stir.ac.uk/}{University of Stirling}, UK</t>
-  </si>
-  <si>
-    <t>PhD in Neuroscience</t>
-  </si>
-  <si>
-    <t>Psychological Research Methods (Evolutionary Psychology) MSc</t>
-  </si>
-  <si>
-    <t>\href{https://www.researchgate.net/profile/Francisco-Flores-14}{Francisco Javier Flores}</t>
-  </si>
-  <si>
-    <t>\href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita}</t>
-  </si>
-  <si>
-    <t>Julia Sanz-Vidania</t>
-  </si>
-  <si>
     <t>Adrián Acosta Guerrero</t>
   </si>
   <si>
-    <t>\href{https://www.uv.es/}{Universitat de València}, Spain</t>
-  </si>
-  <si>
-    <t>\href{https://www.uel.ac.uk/}{U. of East London}, UK</t>
-  </si>
-  <si>
-    <t>Supervised together with Lisa Chiara Fellin</t>
-  </si>
-  <si>
-    <t>Supervised together with \href{https://www.scraigroberts.com/}{S Craig Roberts}</t>
-  </si>
-  <si>
-    <t>Supervised together with \href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita}</t>
-  </si>
-  <si>
     <t>MSc in Psychology</t>
   </si>
   <si>
-    <t>Tésis: \textit{What sense do people make of the functions of their ’behaviours that may be causing problems in their everyday life’? A hybrid deductive/inductive template analysis}</t>
-  </si>
-  <si>
-    <t>Research project \textbf{(\textit{Distinction})}: \textit{\href{http://hdl.handle.net/20.500.12495/4416}{La voz como predictor de sintomatología asociada a depresión y ansiedad} [Voice as a predictor of symptomatology associated with depression and anxiety]}</t>
-  </si>
-  <si>
-    <t>Thesis \textbf{(\textit{Summa Cum Laude})}: \textit{\href{http://hdl.handle.net/10550/67639}{Preferencias sexuales típicas y atípicas según sexo y edad de los estímulos: Utilidad de la técnica de rastreo ocular} [Typical and atypical sexual preferences according to sex and age of the stimuli: Usefulness of the eye tracking technique]}</t>
-  </si>
-  <si>
-    <t>Research project \textbf{\textit{(Distinction)}}: \textit{Sexy Chat: Mate-Choice Preferences for Speech Content in the Absence of Auditory Cues}</t>
-  </si>
-  <si>
-    <t>Supervised together with Alicia Salvador</t>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>Sara Silva Gómez</t>
+  </si>
+  <si>
+    <t>\href{https://www.universidadviu.com/co/}{Universidad Internacional de Valencia}, España</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{\href{https://repositorio.unbosque.edu.co/items/7d3fae16-e576-4380-99d0-1718b930a6bd}{Diseño de evaluación y rehabilitación neuropsicológica en pacientes con trastorno depresivo mayor tratados con terapia electroconvulsiva} [Evaluation design and neuropsychological rehabilitation in patients with major depressive disorder treated with electroconvulsive therapy]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniela Bermudez Calle </t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{\href{https://repositorio.unbosque.edu.co/items/7d3fae16-e576-4380-99d0-1718b930a6bd}{Enfermedad de Huntington: una propuesta de intervención neuropsicológica en etapa inicial} [Huntington's disease: a proposal for early stage neuropsychological intervention]}</t>
+  </si>
+  <si>
+    <t>Soraya López Aranda</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{\href{https://repositorio.unbosque.edu.co/items/7d3fae16-e576-4380-99d0-1718b930a6bd}{Plan de Evaluación e Intervención Neuropsicológica dirigido a adultos mayores institucionalizados en comparación con adultos mayores que asisten a centros de día} [Neuropsychological Assessment and Intervention Plan for institutionalized older adults compared to older adults attending day care centers]}</t>
+  </si>
+  <si>
+    <t>Maite García Gil</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{\href{https://repositorio.unbosque.edu.co/items/7d3fae16-e576-4380-99d0-1718b930a6bd}{Diseño de intervención a través de estimulación cognitiva para la prevención del DCP en personas con discapacidad intelectual} [Design of intervention through cognitive stimulation for the prevention of CPD in people with intellectual disabilities]}</t>
+  </si>
+  <si>
+    <t>Myrian García Martínez</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{\href{https://repositorio.unbosque.edu.co/items/7d3fae16-e576-4380-99d0-1718b930a6bd}{Plan de intervención integrando plataformas digitales y realidad virtual para la rehabilitación de la Enfermedad de Alzheimer en etapa moderada} [Intervention plan integrating digital platforms and virtual reality for the rehabilitation of moderate stage Alzheimer's disease]}</t>
+  </si>
+  <si>
+    <t>Yenny Johanna Baron Londoño</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{\href{https://repositorio.unbosque.edu.co/items/7d3fae16-e576-4380-99d0-1718b930a6bd}{Efecto De Los Niveles De Ansiedad Sobre Los Sesgos Atencionales Hacia Estímulos Emocionales Negativos En Adultos Jóvenes} [Effect of Anxiety Levels on Attentional Biases Toward Negative Emotional Stimuli in Young Adults]}</t>
+  </si>
+  <si>
+    <t>Trabajo de grado \textbf{\textit{(Meritorio)}}: \textit{\href{http://hdl.handle.net/20.500.12495/4416}{La voz como predictor de sintomatología asociada a depresión y ansiedad} [Voice as a predictor of symptomatology associated with depression and anxiety]}</t>
+  </si>
+  <si>
+    <t>PhD en Psicología</t>
+  </si>
+  <si>
+    <t>2023 - En curso</t>
+  </si>
+  <si>
+    <t>\href{https://www.neuroecologylab.com/doctorado-3/}{Juan Sebastián Lucero Carrasquilla}</t>
+  </si>
+  <si>
+    <t>\href{https://www.unam.mx/}{Universidad Autonoma de México}, México</t>
+  </si>
+  <si>
+    <t>Tésis en curso: \textit{\href{https://cuved.unam.mx/divulgacion/index.php/CPMDP/XVICPPUNAM2022/paper/view/1623}{Correlatos Neurales en la Percepción de Rostros Humanos Sexualmente Dimórficos} [Neural Correlates in the Perception of Sexually Dimorphic Human Faces]}</t>
+  </si>
+  <si>
+    <t>Supervised together Isaac González-Santoyo</t>
+  </si>
+  <si>
+    <t>MSc in Neuropsychology</t>
   </si>
 </sst>
 </file>
@@ -613,48 +622,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,7 +679,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -966,22 +975,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="58.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" customWidth="1"/>
-    <col min="5" max="5" width="118.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.88671875" customWidth="1"/>
+    <col min="5" max="5" width="118.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,180 +1007,157 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/data/supervision_pos_en.xlsx
+++ b/data/supervision_pos_en.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Grants\Datos CV\archivos (1)\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Mile_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47154635-3C79-423C-939E-F7CB6C050D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7A5F53-19ED-4C4F-AEAE-01DA47EAEE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>what</t>
   </si>
@@ -71,33 +71,18 @@
     <t>\href{https://www.universidadviu.com/co/}{Universidad Internacional de Valencia}, España</t>
   </si>
   <si>
-    <t>Trabajo de grado: \textit{\href{https://repositorio.unbosque.edu.co/items/7d3fae16-e576-4380-99d0-1718b930a6bd}{Diseño de evaluación y rehabilitación neuropsicológica en pacientes con trastorno depresivo mayor tratados con terapia electroconvulsiva} [Evaluation design and neuropsychological rehabilitation in patients with major depressive disorder treated with electroconvulsive therapy]}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Daniela Bermudez Calle </t>
   </si>
   <si>
-    <t>Trabajo de grado: \textit{\href{https://repositorio.unbosque.edu.co/items/7d3fae16-e576-4380-99d0-1718b930a6bd}{Enfermedad de Huntington: una propuesta de intervención neuropsicológica en etapa inicial} [Huntington's disease: a proposal for early stage neuropsychological intervention]}</t>
-  </si>
-  <si>
     <t>Soraya López Aranda</t>
   </si>
   <si>
-    <t>Trabajo de grado: \textit{\href{https://repositorio.unbosque.edu.co/items/7d3fae16-e576-4380-99d0-1718b930a6bd}{Plan de Evaluación e Intervención Neuropsicológica dirigido a adultos mayores institucionalizados en comparación con adultos mayores que asisten a centros de día} [Neuropsychological Assessment and Intervention Plan for institutionalized older adults compared to older adults attending day care centers]}</t>
-  </si>
-  <si>
     <t>Maite García Gil</t>
   </si>
   <si>
-    <t>Trabajo de grado: \textit{\href{https://repositorio.unbosque.edu.co/items/7d3fae16-e576-4380-99d0-1718b930a6bd}{Diseño de intervención a través de estimulación cognitiva para la prevención del DCP en personas con discapacidad intelectual} [Design of intervention through cognitive stimulation for the prevention of CPD in people with intellectual disabilities]}</t>
-  </si>
-  <si>
     <t>Myrian García Martínez</t>
   </si>
   <si>
-    <t>Trabajo de grado: \textit{\href{https://repositorio.unbosque.edu.co/items/7d3fae16-e576-4380-99d0-1718b930a6bd}{Plan de intervención integrando plataformas digitales y realidad virtual para la rehabilitación de la Enfermedad de Alzheimer en etapa moderada} [Intervention plan integrating digital platforms and virtual reality for the rehabilitation of moderate stage Alzheimer's disease]}</t>
-  </si>
-  <si>
     <t>Yenny Johanna Baron Londoño</t>
   </si>
   <si>
@@ -126,6 +111,42 @@
   </si>
   <si>
     <t>MSc in Neuropsychology</t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t>Leidy Nathaly Peláez Bernal</t>
+  </si>
+  <si>
+    <t>Jimena Zanizo Chambi</t>
+  </si>
+  <si>
+    <t>Liceth Andrea Zaraza Osorio</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Plan de intervención grupal cognitivo conductual en Funciones Ejecutivas en niños y niñas con Trastornos del Espectro Autista (TEA) grado 1, escolarizados en la ciudad de Bogotá} [Cognitive-behavioral group intervention plan in Executive Functions in children with Autism Spectrum Disorders (ASD) grade 1, schooled in the city of Bogota]</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Intervención neuropsicológica en funciones cognitivas para mejorar la fluidez lectora en niños con dislexia} [Neuropsychological intervention on cognitive functions to improve reading fluency in children with dyslexia]</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Programa de rehabilitación cognitiva con estimulación magnética transcraneal y realidad aumentada en pacientes con deterioro cognitivo leve por Enfermedad de Alzheimer} [Cognitive rehabilitation program with transcranial magnetic stimulation and augmented reality in patients with mild cognitive impairment due to Alzheimer's disease]</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Diseño de evaluación y rehabilitación neuropsicológica en pacientes con trastorno depresivo mayor tratados con terapia electroconvulsiva} [Design of neuropsychological evaluation and rehabilitation in patients with major depressive disorder treated with electroconvulsive therapy]</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Enfermedad de Huntington: una propuesta de intervención neuropsicológica en etapa inicial} [Huntington’s disease: a proposal for neuropsychological intervention in the initial stage]</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Plan de Evaluación e Intervención Neuropsicológica dirigido a adultos mayores institucionalizados en comparación con adultos mayores que asisten a centros de día} [Neuropsychological Assessment and Intervention Plan for Institutionalized Older Adults Compared to Older Adults Attending Day Centers]</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Diseño de intervención a través de estimulación cognitiva para la prevención del DCP en personas con discapacidad intelectual} [Design of an intervention through cognitive stimulation for the prevention of MCI in individuals with intellectual disability]</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Plan de intervención integrando plataformas digitales y realidad virtual para la rehabilitación de la Enfermedad de Alzheimer en etapa moderada} [Intervention plan integrating digital platforms and virtual reality for the rehabilitation of moderate-stage Alzheimer’s disease]</t>
   </si>
 </sst>
 </file>
@@ -679,9 +700,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -719,7 +740,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -825,7 +846,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -967,7 +988,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -975,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="58.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,155 +1030,206 @@
     </row>
     <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
